--- a/ScrapingTool/files/FinalData.xlsx
+++ b/ScrapingTool/files/FinalData.xlsx
@@ -1,17 +1,690 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>First User Name</t>
+  </si>
+  <si>
+    <t>Second User Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Thread Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Issue Detail</t>
+  </si>
+  <si>
+    <t>Xperia 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Jonas
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sony Xperia Support</t>
+  </si>
+  <si>
+    <t>Touch,</t>
+  </si>
+  <si>
+    <t>Xperia 5 availability</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/Xperia-5-availability/td-p/1388208/page/1</t>
+  </si>
+  <si>
+    <t>2019-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hello everyone and thank you for showing interest in the Xperia 5! The Xperia 5 will be available from October 2019 and is available to pre-order from next week (week 37) in select markets across Europe, bundled with the WF-1000XM3 truly wireless Noise Cancelling headphones.For availability in your market, please visit your Local Sony Mobile website at www.sonymobile.com/products/phones.Make sure to select your local page by clicking the country selector at the bottom left of the page.
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+amd_2012
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talent</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+HiThanks for the information.  I really like this time Xperia phone. But unfortunately Xperia is not available in my country. I live in Sri Lanka. But I am really disappointing about the product availability. I hope sony will do some international shipping someday.    
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+GilgameshUK
+</t>
+  </si>
+  <si>
+    <t>2019-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  I have the xperia 1 Was going to buy the X5 for my wife, however she wants the red one. Which crazy guy decided not to sell the red phone in the UK? Lost a sale here and that red would be hugely popular.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+RottenFoxBreath
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Commissioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Agreed, the red looks so lush.
+</t>
+  </si>
+  <si>
+    <t>Wi-Fi,Volte,Touch,</t>
+  </si>
+  <si>
+    <t>2019-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+@amd_2012, you're very welcome.I can't do much about the product availability I'm afraid as those decision are made up by people way above my pay grade and since we do not offer international warranty and the specific device has to be launched in the market where you want it serviced, I'm not quite sure that international shipping would help that much.Even when you import the device that is not launched in the country where you are situated, you will not be able to use operator specific services such as VoLTE and Voice over Wi-Fi and you will have to send the device to the country where it was bought, so it's a lot of hazzle. @GilgameshUK, that's a shame. We are lucky here in the Nordics as we get the 3 best colours, at least according to me (Black, Blue and Red) and we don't get the grey one, which I personally don't fancy that much.I really have no idea how it works when it's decided which colours should be available in certain markets, but I do remember my friend in the UK said that some colour was exclusive to a certain retailer in the UK for the Xperia XZ3, if I'm not mistaken. Might have been the green or the red one.Not sure if this is the case for the red Xperia 5 though as the colour is not mentioned on the UK website at all.Hopefully you can turn the wife around and tell her how awesome the blue one is, but usually when someone has decided they want a specific colour, they won't change their mind.@RottenFoxBreath, agreed!I do really like the blue one as well, but there is something about the red colour which makes it really pop and stand out from the rest.I remember the XZ Premium that was launched in a few countries in a red colour and it looked stunning, however that colour was never released in the Nordics..I think they best option is to get in touch with the Local support team in your market (I assume it's the UK) and see if they have any information regarding to why the red colour is not available there, because I don't have this information, not even for the Nordics.Have a great day everyone!
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi  Thanks for the reply.  I am really sad that Sony is not available in Asia and my country. So I can buy Huawei or Nokia from here. Thats so sad.i hope Sony will give international warranty like Apple.
+</t>
+  </si>
+  <si>
+    <t>2019-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi @amd_2012, you're very welcome and I understand that it's not fun having to buy a device from a different brand when you really want a device from a specific brand but it's not available.I can see that the Xperia 5 is listed on the Taiwanese website and will be able available there if that helps you in any way, but if you buy it from there it will also need to be sent to service there, since a device can't be repaired in a market/country where it's not launched.
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+  <si>
+    <t>Volte,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi Jonas Thanks for the reply. I will check it. but I don't think they will ship it to my country. if someone comes from there can buy it I think. My bro bought Xperia z5 in 2015 from Singapore. That one work really well.  Now he changed it to Huawei mate 30 pro coz sony is not available here. I can understand that if something happens to my device its really difficult process to get the warranty or repair. I still using my Xperia z1 as my main phone because of its so compact and great device. Hope if sony will consider the international warranty like apple care. In my country, VOLTE or VOwifi is only working with Huawei, Samsung and apple. So that's not a big issue for me for now.  Anyway thanks again for your help.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SwapXperia
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rookie</t>
+  </si>
+  <si>
+    <t>Security,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hello Sony Team, I stay in India, I still use Xperia X dual but it too old now, neither the latest Android OS will be getting updated apart from Security updates. Can you tell me When will be Xperia 1 or Xperia 5 will get launched in India.?If not, from where can I purchase so that that it can usable in India. RegardsSwapnil
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Strampke
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pioneer</t>
+  </si>
+  <si>
+    <t>2019-09-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Did you read Sonymobile blog about Xperia 5?We answer the questions you’ve been asking about the new Xperia 5
+who knows knowswho doesn't doesn't 
+</t>
+  </si>
+  <si>
+    <t>Touch,Network,Dual Sim,</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/Xperia-5-availability/td-p/1388208/page/2</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+@amd_2012, you're very welcome and I understand it's not optimal, but that is pretty much the only solution if the device will not be launched where you are situated, but keep in mind regarding the service aspect and warranty.Hopefully a repair will never be needed, but you never know!@SwapXperia, hi and thank you for showing interest in the Xperia 1 and Xperia 5.None of the devices are listed on the website for India, but you can of course double check with the support there, but it usually means that the devices are not planned to be launched there.For compatibility, the supported bands for the Single SIM and Dual SIM versions can be found below and you can check with your operator which bands they support and if the device needs to be activated in their network, or if it will work any way.UMTS HSPA+: 2100(Band 1), 1900(Band 2), 1700(Band 4), 850(Band 5), 800(Band 6), 900(Band 8),800(Band 19) MHzGSM GPRS/EDGE: 850, 900, 1800, 1900 MHzLTE: (Bands 1,2,3,4,5,7,8,12,13,17,19,20,25,26,28,29,32,34,38,39,40,41,46,66)I hope that helps!
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Umi12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One time poster</t>
+  </si>
+  <si>
+    <t>2019-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+When will xperia 5 launch in pakistan??What will be it's expected price in pakistan?? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PDas
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adept</t>
+  </si>
+  <si>
+    <t>2019-09-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi, Please make the sony mobiles available in Indian market. The fans of sony like me are waiting for your comeback. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+mucinhanoi365
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visitor</t>
+  </si>
+  <si>
+    <t>2019-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+						how to record a call for this X-5
+		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+shovan3977
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+is there any posibility to get sony xperia1 or xperia 5 in india?or how to import those phone in india???
+</t>
+  </si>
+  <si>
+    <t>Meet Xperia 5!</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/Meet-Xperia-5/td-p/1388129</t>
+  </si>
+  <si>
+    <t>2019-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Overview | Features | Specifications 
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+  <si>
+    <t>Feature,</t>
+  </si>
+  <si>
+    <t>Xperia 5 960 fps</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/Xperia-5-960-fps/td-p/1388229/page/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi I really interest to buy Xperia 5. Just wanna know one thing. From the specifications lots 960fps slow mo not showing on the Sony website. Just wanna know which slow mo feature is available for this device. Thanks
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hello everyone!Due to the change in image sensors, Xperia 5 supports slow motion at 120fps, but not Super slow motion at 960fps, it does however still support Predictive Capture.I hope that answers everyones questions about both these features! 
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+alexdon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moderator</t>
+  </si>
+  <si>
+    <t>Camera,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+@amd_2012  I didn't check this on the phone in Berlin, but I suppose it should have as the same camera from the 1 is here as well. Will try to get some info on this.
+Moderators are not affiliated with, or work for Sony Mobile, and their posts represent their own opinions and views. Click here to find out more about the different roles on the community.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+kenway
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apprentice</t>
+  </si>
+  <si>
+    <t>2019-09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+HI XPERIA 5 does not have 960FPSCOMS has no DRAM https://www.eprice.com.tw/mobile/talk/4551/5404649/1/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ According to all preview's it has the EXACT same camera as on the X1, so you would think that it has 960fps
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Yeah it seems a bit strange that they would omit that, but it appears from that interview with the Sony team, they have used different sensors, with no memory onboard to deal with the slo-mo.Different lenses, different layout positions, and all upgrades(well "new" features), are all software based, and are coming to the 1.It's not the first place I've read that from someone who has spoken to officials. Strange if true though, as you would have thought it's just a mid sized "1".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+tomo100brt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enthusiast</t>
+  </si>
+  <si>
+    <t>Video,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://www.eprice.com.tw/mobile/talk/4551/5404649/1/Well this is not proof. GSMArena says that XPERIA 5 has 960fps slow motion video. So, whome to trust?I think it has 960fps slow motion video.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Guys, I will revert with official information when I have it @tomo100brt @RottenFoxBreath @GilgameshUK @amd_2012 @kenway 
+Moderators are not affiliated with, or work for Sony Mobile, and their posts represent their own opinions and views. Click here to find out more about the different roles on the community.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+pressefr
+</t>
+  </si>
+  <si>
+    <t>Video,Icon ,Icon,</t>
+  </si>
+  <si>
+    <t>2019-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Uhh yea, it should be, the icon shows up after you click; mode &gt; activate super slow motion.The icon shows on the left in both on photo and video. When you click it, it's a video interface. Here what's my Xperia 1 shows: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SuperHot
+</t>
+  </si>
+  <si>
+    <t>2019-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi, 960fps is not present on the full specification sheet on Sony Mobile website, neither is predictive capture. Could you clarify if this feature is available on Xperia 5 please? Thank you so much
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ds2mph
+</t>
+  </si>
+  <si>
+    <t>Sensor,Hardware,Audio,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+It does not support hardware-based 960 fps super slow-mo on Xperia 5 because it does not have CMOS sensor with DRAM. (Exmor RS IMX563) Also it does not support software-based 960fps super slow-mo (Chinese phones which have IMX586, IMX600 without DRAM use this method)  However it can shoot 720p 120fps slow-mo same as previous Xperia smartphones while others(Galaxy,iPhone) support 1080p@240fps slow-mo shooting.   RIP Clear bass, Clear Audio+, Dynamic normalizer, VPT, 960fps slow-mo  
+</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/Xperia-5-960-fps/td-p/1388229/page/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Unfortunately, the gsmarena message is wrong.Eprice this content is the answer to the interview with sony engineers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Not good news. Because there are times when I use 960 fps. Not often but use it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+						not working 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ZZCOOL
+</t>
+  </si>
+  <si>
+    <t>Screen,</t>
+  </si>
+  <si>
+    <t>why does noone care about super vivid mode any more</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/why-does-noone-care-about-super-vivid-mode-any-more/td-p/1389419</t>
+  </si>
+  <si>
+    <t>2019-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+it seems i am alone with loving this mode, sony got rid of it with the xperia 1 and that made me send the 1 back because the screen was way too dull for my taste even the note 10+ with color temp set to the coldest and green and red turned down to 0 in advanced settings is still too dull and yellow for me but decent but my xz1 still has better colors with supervividmode and i am sure the xperia 5 doesn't have it either, sony just silently got rid of it and i see only me complaining about it i have seen noone say anything apart from on my thread about it, it seems noone but me cared about this mode and got extremely dependant on it to the point where i need it.
+</t>
+  </si>
+  <si>
+    <t>Storage,</t>
+  </si>
+  <si>
+    <t>UFS 2.1 or UFS 3.0?</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/UFS-2-1-or-UFS-3-0/td-p/1388440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Nowadays many flagship smartphones have UFS 3.0 storage, how about Xperia 5?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Jonyny
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sony's blog in Gemany says it's UFS 3.0https://sumahoinfo.com/?p=34846 But I guess the answer here again "we do not disclose this information".
+</t>
+  </si>
+  <si>
+    <t>why do you insist on curved display corners</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/why-do-you-insist-on-curved-display-corners/td-p/1388365</t>
+  </si>
+  <si>
+    <t>2019-09-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+this is something that baffles me, why the scurved corners, it distorts images and videos isn't the new xperia line for filmmaking? why couldn't you just make the corners digital like you did with the z1 just add black corners and let people be able to disable them if they want, i sent the xperia 1 back because i could not stand those curved corners of the screen, is it too much to ask for a fully square flat screen today?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Image Distortion...I totally do NOT get that, the corners are miniscule, you hardly notice they are curved, IMO.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ I actually love the curved corners-lends a more modern look -instead one from the 1980's
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JonHC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Totally agree with RottenFoxBreath, there is zero image distortion with having rounded corners and they are tiny compared to many other smartphones, I certainly wouldn't go as far as sending the phone back because of it! Out of curiosity, which phone did you end up replacing the Xperia 1 with that has straight corners?
+</t>
+  </si>
+  <si>
+    <t>Screen,Feature,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+After applying a 3D curved screen protector and a protective case around my Xperia 1. I honestly haven't noticed any distortion. There totally other things that bother me; I wished Sony would fixed... There are other things that bother me about watching a videos: Notifications while watching a movieI get notifications while watching a movieauto-rotation kicks in sometimes when I'm moving around.Which this should be an Xperia Actions feature 'Movie Mode' (I wish, please please bring back Xperia Actions.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TohnoYukine
+</t>
+  </si>
+  <si>
+    <t>Ram,Headphone Jack,Battery,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+It is just bad design to have curved corners. What attracts me most in Sony is that it looks professional. But everything goes wrong since xz2. Tons of other manufacturers make phones with round corners and notched screens, like Samsung, Huawei and Apple. Why would I prefer Sony over those brands if it loses its dignity?I just do not care what amazing film editing softwares or high definition screens a phone has. I have a computer, and a 26-inch 1080p monitor. Who would seek an immersing movie experience on a phone? Who would edit videos on a phone? Those features does not have much to do with daily uses. One quickly loses intersts.I just want a phone, which has a 3.5mm headphone jack, a large battery over 4000mAh, an internal memory over 256GB and RAM over 6GB, and a good design. I do not care the phone is as slim as a card or something. Just put a large battery inside it. A portable charger is way heavier than a heavy phone. Is that such big an ask?Please, Sony, make believe.
+</t>
+  </si>
+  <si>
+    <t>Ram,Bluetooth,Battery,Audio,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+I had a reply typed, but to be honest, a facepalm and shaking my head to reading your post is more apt.I would suggest you go and buy a tablet, and Nokia 3330 if you don't need smartphone features. Many people don't have access to pc's so will use phones for movies, and editing, I do, when travelling or on downtime at work, or in bed.But the death of the 3.5mm socket...good, it's about time.a decent mini DAC does a great job, and with advances in Bluetooth audio technology, it will be a thing of the past soon enough.Larger battery, not always a great thing, it's only as good as it's management, and some of the top manufacturers need large batteries because their battery management is very poorly optimised.And 6Gb or more of RAM, again, management is key, I mean why have say 8GB if you have 4 spare at all times, for instance, as free RAM is wasted RAM.optimisation and management is key.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+nolanchrist007
+</t>
+  </si>
+  <si>
+    <t>Screen,Display,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A curved display has this effect because its shape subtly creates more depth within the screen, providing a more immersive session whether you’re travelling through time, heading into space, or leaping into a terrifying war zone. It is true for curved monitors and TVs. It just feels amazing and I like it. 
+</t>
+  </si>
+  <si>
+    <t>Screen,Display,App,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+replaced it with the note 10+ allthough the note 10+ does have both curved corners and a curved display i was able to disable all that by using an app i designed that adds black bars at the top and bottom making the screen square and flat, the note 10+ is closer to xperia than the xperia 1
+</t>
+  </si>
+  <si>
+    <t>Screen,Camera,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ah, nothing like fixing the problem by removing screen estate.But for the life of me, I can't remember where it said Xperia phones must come with curved corners as stock.I think the bggest laugh on the Samsung phones is the cameras, who wants a hole punch camera nowadays, even if it is semi hidden. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+jeremyan
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inhabitant</t>
+  </si>
+  <si>
+    <t>LTE,</t>
+  </si>
+  <si>
+    <t>Xperia 5 Wi-Fi Calling on T-Mobile USA?</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/Xperia-5-Wi-Fi-Calling-on-T-Mobile-USA/td-p/1388626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hello, Does the Xperia 5 support WiFi calling and/or HD Calling (Voice over LTE) on T-Mobile USA? Thank you
+</t>
+  </si>
+  <si>
+    <t>Touch,Feature,Dual Sim,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi @jeremyan,The Xperia 5 supports the feature but if a specific operator will support it, that question is better asked directly to the operator in question, in your case T-Mobile as it is up to them to support it if they want to have it. I don't have a list of all the operators that supports this feature and VoWiFi as the list would be endless since there are so many operators in all the different countries.I don't know exactly how it works in the US, but I would assume that you need the US specific model (J8270) and perhaps the device needs to be bought from T-Mobile. Here in the Nordics you need the Dual SIM version of a device and with the Nordic software, otherwise it won't work.I hope that helps! 
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+  <si>
+    <t>Volte,Internet,Feature,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Thank you Jonas, Isn't this a 5 second email with the person at Sony Mobile running the North American release?  A simple "yes," "no," or "we haven't decided yet" would be welcomed. Imagine T-Mobile's response if we ask them:  "We are one of the big 4 USA carriers and couldn't possibly know all the thousands of random devices released in the world that we don't sell in our stores." The XZ1 Compact was not sold in T-Mobile stores, and did support the VoLTE feature. The unreliable information on the Internet says the device manufacturer (Sony) has to decide whether to certify it, i.e., decide to pay for it, but I have no idea if that's correct - if it is then the answer should be even easier.  Your help is appreciated!!  (and I hope that it supports it)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi again @jeremyan,I don't have the contact information to the person responsible for this, but I can of course check if I can find some more information. All the information I have available is that the device supports both features (Wi-Fi calling and VoLTE).To be honest, I'm not quite sure what the process looks like but I know in the Nordics, Xperia devices was the first ones to support this at the operators that offered the service back in the Xperia Z5-series days. This can of course depend on the Sony office in Sweden and it's easy communication between both parties.Let me do some more digging!
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+  <si>
+    <t>For goodness sake 4K issue in xperia 5?</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/For-goodness-sake-4K-issue-in-xperia-5/td-p/1388845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hey there I have the Xperia 1, as you all knowHowever; as you also know ,it has SERIOUS stability (OIS) issues at 4K resolution. Can you assure me that  the OIS is sorted out on this model, as surely you arent going to make the SAME mistakes as you did with the Xperia 1? Given that is the EXACT same camera setup and software then im very very worried!
+</t>
+  </si>
+  <si>
+    <t>Do Xperia 5 pre-orders include WF-1000XM3 wireless headphones in the USA?</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/Do-Xperia-5-pre-orders-include-WF-1000XM3-wireless-headphones-in/td-p/1388542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi, Could anyone at Sony kindly confirm whether the USA Xperia 5 pre-orders include the WF-1000XM3 wireless headphones?  Numerous announcements indicate they are included with pre-orders, but neither of the two USA retailers linked on the Sony webpage, B&amp;H Photo and Focus Camera, list it in the product descriptions. https://blogs.sonymobile.com/2019/09/05/deal-pre-order-xperia-5-wf-1000xm3-headphones-free/ Also, will any of the colors besides Black be available in the USA? Thank you
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Side note, I emailed Sony Mobile support via the contact link on the Xperia webpage with the same question, and here is their response: --As we care about the experience of the customers with our devices and we are​ more than happy to assist you with your inquiry however please note that your inquiry related to the WF-1000XM3 wireless Headphones are not supported by this department, since they are from Sony Electronics to get the appropriate support -- Ha ha
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Did you read what star means? Timing and availability will vary by market. So no every market will get WF-1000XM3.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi @jeremyan, thank you for showing interest in the Xperia 5! This will be a bit tricky for us here at our Global user based forum to answer since pre-orders, what is included when you pre-order and so forth are very market specific and will vary between markets/countries.I had a look at the Sony Mobile website for the US and the only colour option that is available is black and when checking the page that you ended up on, the WF-1000XM3 is not mentioned at either of them, just the device (unless I'm missing something). This leads me to believe that the text in the blog post that says "Xperia 5 is available to pre-order from next week in select European markets, where it is being bundled with Sony’s industry leading and award-winning WF-1000XM3 truly wireless Noise Cancelling headphones." means that the headphones are only included when pre-ordering the device in selected markets in Europe and not in other markets (that is how I understand it at least).I know that a lot of operators/retailers here in the Nordics where I'm situated also has the same pre-order offer, so it doesn't seem to be exclusive to customers only pre-booking via the eShop at least.I understand that the answer you received from the Local support team doesn't really help much and there must have been some kind of misunderstanding and they thought you were asking about the headphones only (which we do not handle the support for), so please get in touch with them again, or if you get in touch with the two retailers listed and see if they know more about a pre-order offer and the colours.Sorry that I can't be more of more help.
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Thank you Jonas for the info.  I totally appreciate the ambiguity left in the news releases, hence my question here  (e.g., the graphic advertisement at the bottom does not specify European markets, simply stating "Limited Offer") I hope that Sony considers adding an incentive to pre-orders in the USA to make pre-ordering worthwhile.  The European offer is very attractive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+@jeremyan, you're welcome and even in Europe that has been a lot of different offers for different countries.I can't remember the exact device it was, but there was some really good offer that was only available in Germany and Italy with a pair of headphones worth around 400 euros and some other countries had no pre-book at all for the same device.I'm not quite sure why there are so big discrepancies depending on where the device is bought and what you get when pre-booking it. There could of course be some offers for the US market closer to launch, so if you are still interested in the Xperia 5, I would recommend that you wait a bit with pre-booking, just to make sure that you don't miss out on anything in case a specific retailer/operator offers the headphones or something else closer to launch.The text in the news release could also indicate that the pre-ordering that starts next week for Europe will be available in other markets/countries, just not next week. To be honest, I always find statements in general very fuzzy, not only the ones from Sony but in general, but it might just be me.
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Torodd
+</t>
+  </si>
+  <si>
+    <t>Wireless charging</t>
+  </si>
+  <si>
+    <t>https://talk.sonymobile.com/t5/Xperia-5/Wireless-charging/td-p/1388181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Will the new phone have Wireless Charging capabilities? It's the only thing that's missing on your phones lately.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+nolramlb
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forum Legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Wireless charging isn't listed on the official specs.. https://www.sonymobile.com/global-en/products/phones/xperia-5/?save_data=on&amp;utm_version=newsony
+________________________________________________________________________________The Man! The Myth! The Forum Legend! -Scott Sterling
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Martin
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi @Torodd and welcome to our community! According to the specification sheet that I have available and the page @nolramlb mentioned, wireless charging is not available in the Xperia 5. Let me know if you have any further questions! 
+Official Sony Xperia Support StaffIf you're new to our forums, make sure that you've read our Discussion guidelines.To get in touch with your local support team, please visit our contact page.
+</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,18 +727,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -366,234 +1039,1541 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Thread</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Chromebook 3 Forum</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>12/09/2018</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Playstore,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>playstore</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://androidforums.com/threads/playstore.1291812/</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>my playstore missing the id parse uri.i cant  down load</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chromebook 3 Forum</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12/09/2018</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>playstore</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://androidforums.com/threads/playstore.1291812/</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Reinstall play store</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Galaxy A Forum</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>08/27/2019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Google,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>General SM-A305G PROBLEM WITH FLASH</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://androidforums.com/threads/sm-a305g-problem-with-flash.1311332/</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hello friends, I am from Latin America, I have the SM-305G device, the phone is bought from a telephone company, I had problems with FRP, I used ODIN, downloading the combination software, but the error is always the same: please get the approval to use factory binaries (pit), I have downloaded the pit file from a server, it has not worked, also extracted through MIRACLE BOX, but the problem persists always, I also used the Z3x tool, but I did not get results, now I come here to that can give me a hand and thus be able to solve this.
-Photo link with a problem: https://drive.google.com/drive/folders/1HWtBkdf-mdjz9trDL_cDYgixDRYXLUyy?usp=sharing</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Galaxy A Forum</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>06/11/2018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Support No Dictionary</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://androidforums.com/threads/no-dictionary.1274242/</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>I have a Galaxy A tablet. There doesn't seem to have a dictionary. Fortunatly I went to school back when you had to actually know how to spell.
-But I'm getting tired of not having the type ahead function. How can I get it reinstalled?</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Galaxy A Forum</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>06/11/2018</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Keyboard,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Support No Dictionary</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://androidforums.com/threads/no-dictionary.1274242/</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>What is the default keyboard?
-Clear its cache....</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Galaxy A Forum</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>06/11/2018</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Keyboard,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Support No Dictionary</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://androidforums.com/threads/no-dictionary.1274242/</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Try a different keyboard. I usually recommend GBoard or Swiftkey, both have good dictionaries and type ahead prediction.</t>
-        </is>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>